--- a/public/preprocessing/@SBYudhoyono.xlsx
+++ b/public/preprocessing/@SBYudhoyono.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22799</v>
+        <v>31141</v>
       </c>
       <c r="C2" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,17 +497,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['kemarin', 'kami', 'sekeluarga', 'ziarah', 'ke', 'makam', 'almarhumah', 'ibu', 'roosminnie', 'salim', 'yang', 'wafat', 'pada', 'sabtu', 'saya', 'mengenang', 'almarhum']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['kemarin', 'sekeluarga', 'ziarah', 'makam', 'almh', 'roosminnie', 'salim', 'wafat', 'pd', 'sabtu', 'mengenang', 'alm']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['kemarin', 'keluarga', 'ziarah', 'makam', 'almh', 'roosminnie', 'salim', 'wafat', 'pd', 'sabtu', 'kenang', 'alm']</t>
+          <t>['kemarin', 'sekeluarga', 'ziarah', 'makam', 'almarhumah', 'roosminnie', 'salim', 'wafat', 'sabtu', 'mengenang', 'almarhum']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['kemarin', 'keluarga', 'ziarah', 'makam', 'almarhumah', 'roosminnie', 'salim', 'wafat', 'sabtu', 'kenang', 'almarhum']</t>
         </is>
       </c>
     </row>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22800</v>
+        <v>31142</v>
       </c>
       <c r="C3" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,15 +538,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['kritik', 'itu', 'laksana', 'obat', 'amp', 'yang', 'dikritik', 'bisa', 'sakit', 'namun', 'kalau', 'kritiknya', 'benar', 'amp', 'bahasanya', 'tidak', 'kasar', 'bisa']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>['kritik', 'laksana', 'obat', 'dikritik', 'sakit', 'kritiknya', 'bahasanya', 'kasar']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['kritik', 'laksana', 'obat', 'kritik', 'sakit', 'kritik', 'bahasa', 'kasar']</t>
         </is>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22801</v>
+        <v>31143</v>
       </c>
       <c r="C4" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,17 +579,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['obat', 'itu', 'rasanya', 'pahit', 'namun', 'bisa', 'mencegah', 'atau', 'menyembuhkan', 'penyakit', 'jika', 'obatnya', 'tepat', 'amp', 'dosisnya', 'juga', 'tetap']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['obat', 'pahit', 'mencegah', 'menyembuhkan', 'penyakit', 'obatnya', 'dosisnya', 'tep']</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['obat', 'pahit', 'cegah', 'sembuh', 'sakit', 'obat', 'dosis', 'tep']</t>
+          <t>['obat', 'pahit', 'mencegah', 'menyembuhkan', 'penyakit', 'obatnya', 'dosisnya']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['obat', 'pahit', 'cegah', 'sembuh', 'sakit', 'obat', 'dosis']</t>
         </is>
       </c>
     </row>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22802</v>
+        <v>31144</v>
       </c>
       <c r="C5" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,17 +620,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['saya', 'kerap', 'berdiskusi', 'dengan', 'prof', 'firmanzah', 'amp', 'para', 'staf', 'khusus', 'presiden', 'dalam', 'forum', 'itu', 'saya', 'dapatkan', 'banyak', 'hal']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['kerap', 'berdiskusi', 'prof', 'firmanzah', 'staf', 'khusus', 'presiden', 'dlm', 'forum', 'dapatkan']</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['kerap', 'diskus', 'prof', 'firmanzah', 'staf', 'khusus', 'presiden', 'dlm', 'forum', 'dapat']</t>
+          <t>['kerap', 'berdiskusi', 'prof', 'firmanzah', 'staf', 'khusus', 'presiden', 'forum', 'dapatkan']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['kerap', 'diskus', 'prof', 'firmanzah', 'staf', 'khusus', 'presiden', 'forum', 'dapat']</t>
         </is>
       </c>
     </row>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22803</v>
+        <v>31145</v>
       </c>
       <c r="C6" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,17 +661,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['almarhum', 'prof', 'firmanzah', 'adalah', 'sosok', 'muda', 'yang', 'punya', 'idealisme', 'tinggi', 'positif', 'thinking', 'berpaham', 'ekonomi', 'yang', 'berkead']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['alm', 'prof', 'firmanzah', 'adl', 'sosok', 'muda', 'idealisme', 'positive', 'thinking', 'berpaham', 'ekonomi', 'berkead']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['alm', 'prof', 'firmanzah', 'adl', 'sosok', 'muda', 'idealisme', 'positive', 'thinking', 'paham', 'ekonomi', 'berkead']</t>
+          <t>['almarhum', 'prof', 'firmanzah', 'sosok', 'muda', 'idealisme', 'positif', 'thinking', 'berpaham', 'ekonomi', 'berkead']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['almarhum', 'prof', 'firmanzah', 'sosok', 'muda', 'idealisme', 'positif', 'thinking', 'paham', 'ekonomi', 'berkead']</t>
         </is>
       </c>
     </row>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22804</v>
+        <v>31146</v>
       </c>
       <c r="C7" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,15 +702,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kita', 'kehilangan', 'salah', 'satu', 'tokoh', 'muda', 'sekaligus', 'rektor', 'universitas', 'paramadin']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kehilangan', 'salah', 'tokoh', 'muda', 'rektor', 'universitas', 'paramadin']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'hilang', 'salah', 'tokoh', 'muda', 'rektor', 'universitas', 'paramadin']</t>
         </is>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22805</v>
+        <v>31147</v>
       </c>
       <c r="C8" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,15 +743,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['bagi', 'siapapun', 'yang', 'memegang', 'kekuasaan', 'politik', 'pada', 'tingkat', 'apapun', 'banyak', 'cara', 'berpolitik', 'yang', 'lebih', 'bermoral', 'amp', 'le']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>['memegang', 'kekuasaan', 'politik', 'tingkat', 'apapun', 'berpolitik', 'bermoral', 'le']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['pegang', 'kuasa', 'politik', 'tingkat', 'apa', 'politik', 'moral', 'le']</t>
         </is>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22806</v>
+        <v>31148</v>
       </c>
       <c r="C9" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,15 +784,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['kedelapan', 'pence', 'bukan', 'tipe', 'yang', 'haus', 'kekuasaan', 'dia', 'tak', 'memanfaatkan', 'kesempatan', 'untuk', 'ambil', 'alih', 'kepemimpinan', 'meskipun']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>['kedelapan', 'pence', 'tipe', 'haus', 'kekuasaan', 'memanfaatkan', 'kesempatan', 'ambil', 'alih', 'kepemimpinan']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['delap', 'pence', 'tipe', 'haus', 'kuasa', 'manfaat', 'sempat', 'ambil', 'alih', 'pimpin']</t>
         </is>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22807</v>
+        <v>31149</v>
       </c>
       <c r="C10" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,17 +825,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['ketujuh', 'setiap', 'krisis', 'selalu', 'ada', 'pahlawannya', 'saya', 'respek', 'kepada', 'wakil, presiden', 'mike', 'pence', 'yang', 'tunjukan', 'karakter', 'kesatrianya']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['ketujuh', 'krisis', 'pahlawannya', 'respek', 'kpd', 'wapres', 'mike', 'pence', 'tunjukkan', 'karakter', 'kesatrianya']</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['tujuh', 'krisis', 'pahlawan', 'respek', 'kpd', 'wapres', 'mike', 'pence', 'tunjuk', 'karakter', 'kesatria']</t>
+          <t>['ketujuh', 'krisis', 'pahlawannya', 'respek', 'wakil, presiden', 'mike', 'pence', 'tunjukan', 'karakter', 'kesatrianya']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['tujuh', 'krisis', 'pahlawan', 'respek', 'wakil presiden', 'mike', 'pence', 'tunjuk', 'karakter', 'kesatria']</t>
         </is>
       </c>
     </row>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22808</v>
+        <v>31150</v>
       </c>
       <c r="C11" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,17 +866,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['keenam', 'jelang', 'pelantikan', 'biden', 'washington', 'dc', 'mencekam', 'banyak', 'barikade', 'amp', 'dalam', 'pengamanan', 'ketat', 'tentara', 'kamu']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['keenam', 'jelang', 'pelantikan', 'biden', 'washington', 'dc', 'mencekam', 'barikade', 'dlm', 'pengamanan', 'ketat', 'tentara', 'sia']</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['enam', 'jelang', 'lantik', 'biden', 'washington', 'dc', 'cekam', 'barikade', 'dlm', 'aman', 'ketat', 'tentara', 'sia']</t>
+          <t>['keenam', 'jelang', 'pelantikan', 'biden', 'washington', 'dc', 'mencekam', 'barikade', 'pengamanan', 'ketat', 'tentara']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['enam', 'jelang', 'lantik', 'biden', 'washington', 'dc', 'cekam', 'barikade', 'aman', 'ketat', 'tentara']</t>
         </is>
       </c>
     </row>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22809</v>
+        <v>31151</v>
       </c>
       <c r="C12" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,15 +907,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['kelima', 'kali', 'ini', 'pergantian', 'kekuasaan', 'yang', 'damai', 'smooth', 'amp', 'peaceful', 'tak', 'terjadi', 'di', 'as', 'transisi', 'kekuasaan', 'dibarengi']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>['kali', 'pergantian', 'kekuasaan', 'damai', 'smooth', 'peaceful', 'as', 'transisi', 'kekuasaan', 'dibarengi']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['kali', 'ganti', 'kuasa', 'damai', 'smooth', 'peaceful', 'as', 'transisi', 'kuasa', 'bareng']</t>
         </is>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22810</v>
+        <v>31152</v>
       </c>
       <c r="C13" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,17 +948,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['keempat', 'tiap', 'pemilihan, umum', 'ada', 'yang', 'menang', 'ada', 'yang', 'kalah', 'meskipun', 'berat', 'amp', 'menyakitkan', 'siapapun', 'yang', 'kalah', 'wajib', 'terima', 'keka']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['keempat', 'pemilu', 'menang', 'kalah', 'berat', 'menyakitkan', 'kalah', 'wajib', 'terima', 'keka']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['empat', 'milu', 'menang', 'kalah', 'berat', 'sakit', 'kalah', 'wajib', 'terima', 'keka']</t>
+          <t>['keempat', 'pemilihan, umum', 'menang', 'kalah', 'berat', 'menyakitkan', 'kalah', 'wajib', 'terima', 'keka']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['empat', 'pilih umum', 'menang', 'kalah', 'berat', 'sakit', 'kalah', 'wajib', 'terima', 'keka']</t>
         </is>
       </c>
     </row>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22811</v>
+        <v>31153</v>
       </c>
       <c r="C14" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,15 +989,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['ketiga', 'posttruth', 'politics', 'politik', 'yang', 'tidak', 'berlandaskan', 'pada', 'fakta', 'termasuk', 'kebohongan', 'yang', 'sistematis', 'amp', 'berulan']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>['ketiga', 'posttruth', 'politics', 'politik', 'berlandaskan', 'fakta', 'kebohongan', 'sistematis', 'berulan']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['tiga', 'posttruth', 'politics', 'politik', 'landas', 'fakta', 'bohong', 'sistematis', 'ulan']</t>
         </is>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22812</v>
+        <v>31154</v>
       </c>
       <c r="C15" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,17 +1030,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['kedua', 'di', 'era', 'posttruth', 'politics', 'ucapan', 'pemimpin', 'presiden', 'harus', 'benar', 'amp', 'jujur', 'kalau', 'tidak', 'dampaknya', 'sangat', 'besar']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['era', 'posttruth', 'politics', 'ucapan', 'pemimpin', 'presiden', 'hrs', 'jujur', 'dampaknya', 'sgt']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['era', 'posttruth', 'politics', 'ucap', 'pimpin', 'presiden', 'hrs', 'jujur', 'dampak', 'sgt']</t>
+          <t>['era', 'posttruth', 'politics', 'ucapan', 'pemimpin', 'presiden', 'jujur', 'dampaknya']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['era', 'posttruth', 'politics', 'ucap', 'pimpin', 'presiden', 'jujur', 'dampak']</t>
         </is>
       </c>
     </row>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22813</v>
+        <v>31155</v>
       </c>
       <c r="C16" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,15 +1071,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['bagi', 'para', 'pencinta', 'demokrasi', 'drama', 'politik', 'di', 'as', 'saat', 'ini', 'dapat', 'dipetik', 'pelajarannya', 'pertama', 'sistem', 'demokrasi', 'ti']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>['pencinta', 'demokrasi', 'drama', 'politik', 'as', 'dipetik', 'pelajarannya', 'sistem', 'demokrasi', 'ti']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['cinta', 'demokrasi', 'drama', 'politik', 'as', 'petik', 'ajar', 'sistem', 'demokrasi', 'ti']</t>
         </is>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>22814</v>
+        <v>31156</v>
       </c>
       <c r="C17" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,15 +1112,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['syekh', 'ali', 'jaber', 'menyempatkan', 'waktu', 'untuk', 'menjenguk', 'amp', 'mendoakan', 'istri', 'tercinta', 'ani', 'yudhoyono', 'ketika', 'sedang', 'dirawat']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>['syekh', 'ali', 'jaber', 'menyempatkan', 'menjenguk', 'mendoakan', 'istri', 'tercinta', 'ani', 'yudhoyono', 'dirawat']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['syekh', 'ali', 'jaber', 'sempat', 'jenguk', 'doa', 'istri', 'cinta', 'ani', 'yudhoyono', 'rawat']</t>
         </is>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22815</v>
+        <v>31157</v>
       </c>
       <c r="C18" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,17 +1153,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['saya', 'mengenal', 'almarhum', 'sebagai', 'ulama', 'yang', 'teduh', 'syiar', 'amp', 'fatwanya', 'mencerdaskan', 'umat', 'tutur', 'kata', 'syekh', 'ali', 'jaber', 'saja']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['mengenal', 'almarhum', 'ulama', 'teduh', 'syiar', 'fatwanya', 'mencerdaskan', 'umat', 'syekh', 'ali', 'jaber', 'ja']</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['kenal', 'almarhum', 'ulama', 'teduh', 'syiar', 'fatwa', 'cerdas', 'umat', 'syekh', 'ali', 'jaber', 'ja']</t>
+          <t>['mengenal', 'almarhum', 'ulama', 'teduh', 'syiar', 'fatwanya', 'mencerdaskan', 'umat', 'syekh', 'ali', 'jaber']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['kenal', 'almarhum', 'ulama', 'teduh', 'syiar', 'fatwa', 'cerdas', 'umat', 'syekh', 'ali', 'jaber']</t>
         </is>
       </c>
     </row>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>22816</v>
+        <v>31158</v>
       </c>
       <c r="C19" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,17 +1194,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'dengan', 'rasa', 'duka', 'yang', 'mendalam', 'saya', 'mendoakan', 'kiranya', 'allah', 'subhanahu, wa, taala', 'menerima']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'mendalam', 'mendoakan', 'allah', 'swt', 'menerima']</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'dalam', 'doa', 'allah', 'swt', 'terima']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'mendalam', 'mendoakan', 'allah', 'subhanahu, wa, taala', 'menerima']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'dalam', 'doa', 'allah', 'subhanahu wa taala', 'terima']</t>
         </is>
       </c>
     </row>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22817</v>
+        <v>31159</v>
       </c>
       <c r="C20" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,17 +1235,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['tulisan', 'bapak', 'susilo, bambang, yudhoyono', 'berjudul', 'indonesia', 'tahun', 'peluang', 'untuk', 'sukses', 'ada', 'jangan', 'kita', 'siasiakan', 'selamat', 'membac']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['tulisan', 'sby', 'berjudul', 'indonesia', 'peluang', 'sukses', 'siasiakan', 'selamat', 'membac']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['tulis', 'sby', 'judul', 'indonesia', 'peluang', 'sukses', 'siasiakan', 'selamat', 'membac']</t>
+          <t>['tulisan', 'susilo, bambang, yudhoyono', 'berjudul', 'indonesia', 'peluang', 'sukses', 'siasiakan', 'selamat', 'membac']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['tulis', 'susilo bambang yudhoyono', 'judul', 'indonesia', 'peluang', 'sukses', 'siasiakan', 'selamat', 'membac']</t>
         </is>
       </c>
     </row>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22818</v>
+        <v>31160</v>
       </c>
       <c r="C21" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,17 +1276,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['selamat', 'tahun', 'baru', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['selamat', 'sby']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['selamat', 'sby']</t>
+          <t>['selamat', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['selamat', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>22819</v>
+        <v>31161</v>
       </c>
       <c r="C22" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,15 +1317,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['damai', 'amp', 'berbahagialah', 'umat', 'kristiani', 'yang', 'tengah', 'merayakan', 'natal', 'tahun', 'ini', 'semoga', 'kasih', 'tuhan', 'menyertai', 'sauda']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>['damai', 'berbahagialah', 'umat', 'kristiani', 'merayakan', 'natal', 'semoga', 'kasih', 'tuhan', 'menyertai', 'sauda']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['damai', 'bahagia', 'umat', 'kristiani', 'raya', 'natal', 'moga', 'kasih', 'tuhan', 'serta', 'sauda']</t>
         </is>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>22820</v>
+        <v>31162</v>
       </c>
       <c r="C23" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,15 +1358,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['di', 'inggris', 'muncul', 'strain', 'covid', 'baru', 'yang', 'lebih', 'mudah', 'amp', 'cepat', 'menyebar', 'pandemi', 'spanish', 'flu', 'penyebaran', 'virus']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>['inggris', 'muncul', 'strain', 'covid', 'mudah', 'cepat', 'menyebar', 'pandemi', 'spanish', 'flu', 'penyebaran', 'virus']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['inggris', 'muncul', 'strain', 'covid', 'mudah', 'cepat', 'sebar', 'pandemi', 'spanish', 'flu', 'sebar', 'virus']</t>
         </is>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22821</v>
+        <v>31163</v>
       </c>
       <c r="C24" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,17 +1399,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['ketika', 'saya', 'pimpin', 'indonesia', 'almarhum', 'kiai', 'syukri', 'kerap', 'berdiskusi', 'dengan', 'saya', 'amp', 'aktif', 'berperan', 'bersama', 'pemerintah', 'dalam', 'memaj']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['sy', 'pimpin', 'indonesia', 'alm', 'kiai', 'syukri', 'kerap', 'berdiskusi', 'aktif', 'berperan', 'pemerintah', 'dlm', 'memaj']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['sy', 'pimpin', 'indonesia', 'alm', 'kiai', 'syukri', 'kerap', 'diskus', 'aktif', 'peran', 'perintah', 'dlm', 'memaj']</t>
+          <t>['pimpin', 'indonesia', 'almarhum', 'kiai', 'syukri', 'kerap', 'berdiskusi', 'aktif', 'berperan', 'pemerintah', 'memaj']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['pimpin', 'indonesia', 'almarhum', 'kiai', 'syukri', 'kerap', 'diskus', 'aktif', 'peran', 'perintah', 'memaj']</t>
         </is>
       </c>
     </row>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>22822</v>
+        <v>31164</v>
       </c>
       <c r="C25" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,17 +1440,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'saya', 'turut', 'berduka', 'cita', 'atas', 'wafatnya', 'sahabat', 'saya', 'dari', 'kh', 'abdullah', 'syukri', 'saja']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'berduka', 'cita', 'wafatnya', 'sahabat', 'dr', 'kh', 'abdullah', 'syukri', 'za']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'cita', 'wafat', 'sahabat', 'dr', 'kh', 'abdullah', 'syukri', 'za']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'berduka', 'cita', 'wafatnya', 'sahabat', 'kh', 'abdullah', 'syukri']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'duka', 'cita', 'wafat', 'sahabat', 'kh', 'abdullah', 'syukri']</t>
         </is>
       </c>
     </row>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>22823</v>
+        <v>31165</v>
       </c>
       <c r="C26" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,17 +1481,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['susilo, bambang, yudhoyono', 'menulis', 'artikel', 'selamatkan', 'dunia', 'kita', 'save', 'our', 'world', 'berbeda', 'dengan', 'artikel', 'sebelumnya', 'yang', 'disampaikan', 'dalam', 'format']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['sby', 'menulis', 'artikel', 'selamatkan', 'dunia', 'save', 'our', 'world', 'berbeda', 'artikel', 'sblmnya', 'dlm', 'format']</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['sby', 'tulis', 'artikel', 'selamat', 'dunia', 'save', 'our', 'world', 'beda', 'artikel', 'sblmnya', 'dlm', 'format']</t>
+          <t>['susilo, bambang, yudhoyono', 'menulis', 'artikel', 'selamatkan', 'dunia', 'save', 'our', 'world', 'berbeda', 'artikel', 'format']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['susilo bambang yudhoyono', 'tulis', 'artikel', 'selamat', 'dunia', 'save', 'our', 'world', 'beda', 'artikel', 'format']</t>
         </is>
       </c>
     </row>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>22824</v>
+        <v>31166</v>
       </c>
       <c r="C27" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,17 +1522,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['saksikan', 'pandangan', 'susilo, bambang, yudhoyono', 'terkait', 'permasalahan', 'pandemi', 'covid', 'yang', 'melanda', 'dunia', 'dan', 'indonesia', 'serta', 'dampak', 'ekonomin']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['saksikan', 'pandangan', 'sby', 'terkait', 'permasalahan', 'pandemi', 'covid', 'melanda', 'dunia', 'indonesia', 'dampak', 'ekonomin']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['saksi', 'pandang', 'sby', 'kait', 'masalah', 'pandemi', 'covid', 'landa', 'dunia', 'indonesia', 'dampak', 'ekonomin']</t>
+          <t>['saksikan', 'pandangan', 'susilo, bambang, yudhoyono', 'terkait', 'permasalahan', 'pandemi', 'covid', 'melanda', 'dunia', 'indonesia', 'dampak', 'ekonomin']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['saksi', 'pandang', 'susilo bambang yudhoyono', 'kait', 'masalah', 'pandemi', 'covid', 'landa', 'dunia', 'indonesia', 'dampak', 'ekonomin']</t>
         </is>
       </c>
     </row>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>22825</v>
+        <v>31167</v>
       </c>
       <c r="C28" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,17 +1563,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['mengenang', 'hari', 'ulang', 'tahun', 'almarhumah', 'ani', 'yudhoyono', 'susilo, bambang, yudhoyono', 'meluncurkan', 'sebuah', 'tembang', 'jawa', 'berjudul', 'gunung', 'limo', 'li']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['mengenang', 'ulang', 'almarhumah', 'ani', 'yudhoyono', 'sby', 'meluncurkan', 'tembang', 'jawa', 'berjudul', 'gunung', 'limo', 'li']</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['kenang', 'ulang', 'almarhumah', 'ani', 'yudhoyono', 'sby', 'luncur', 'tembang', 'jawa', 'judul', 'gunung', 'limo', 'li']</t>
+          <t>['mengenang', 'ulang', 'almarhumah', 'ani', 'yudhoyono', 'susilo, bambang, yudhoyono', 'meluncurkan', 'tembang', 'jawa', 'berjudul', 'gunung', 'limo', 'li']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['kenang', 'ulang', 'almarhumah', 'ani', 'yudhoyono', 'susilo bambang yudhoyono', 'luncur', 'tembang', 'jawa', 'judul', 'gunung', 'limo', 'li']</t>
         </is>
       </c>
     </row>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>22826</v>
+        <v>31168</v>
       </c>
       <c r="C29" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,15 +1604,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['memosisikan', 'ideologi', 'harus', 'tepat', 'amp', 'benar', 'ingat', 'proses', 'nation', 'building', 'amp', 'consensus', 'making', 'yang', 'kita', 'lakukan', 'sej']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['memposisikan', 'ideologi', 'proses', 'nation', 'building', 'consensus', 'making', 'lakukan', 'sej']</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
+        <is>
+          <t>['memosisikan', 'ideologi', 'proses', 'nation', 'building', 'consensus', 'making', 'lakukan', 'sej']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>['posisi', 'ideologi', 'proses', 'nation', 'building', 'consensus', 'making', 'laku', 'sej']</t>
         </is>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>22827</v>
+        <v>31169</v>
       </c>
       <c r="C30" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,17 +1645,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['kita', 'harus', 'sungguh', 'berhatihati', 'jika', 'berpikir', 'berbicara', 'amp', 'merancang', 'sesuatu', 'yang', 'berkaitan', 'dengan', 'ideologi', 'amp', 'dasar', 'tega']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['sungguh', 'berhatihati', 'berpikir', 'berbicara', 'merancang', 'berkaitan', 'ideologi', 'dasar', 'nega']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['sungguh', 'berhatihati', 'pikir', 'bicara', 'rancang', 'kait', 'ideologi', 'dasar', 'nega']</t>
+          <t>['sungguh', 'berhatihati', 'berpikir', 'berbicara', 'merancang', 'berkaitan', 'ideologi', 'dasar', 'tega']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['sungguh', 'berhatihati', 'pikir', 'bicara', 'rancang', 'kait', 'ideologi', 'dasar', 'tega']</t>
         </is>
       </c>
     </row>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>22828</v>
+        <v>31170</v>
       </c>
       <c r="C31" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,17 +1686,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['saya', 'mengikuti', 'hiruk', 'pikuk', 'sosial', 'amp', 'politik', 'seputar', 'rancangan, undang, undang', 'haluan', 'ideologi', 'pancasila', 'hip', 'saya', 'juga', 'sudah', 'membaca', 'amp']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['mengikuti', 'hiruk', 'pikuk', 'sosial', 'politik', 'seputar', 'ruu', 'haluan', 'ideologi', 'pancasila', 'hip', 'membaca']</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['ikut', 'hiruk', 'pikuk', 'sosial', 'politik', 'putar', 'ruu', 'haluan', 'ideologi', 'pancasila', 'hip', 'baca']</t>
+          <t>['mengikuti', 'hiruk', 'pikuk', 'sosial', 'politik', 'seputar', 'rancangan, undang, undang', 'haluan', 'ideologi', 'pancasila', 'hip', 'membaca']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['ikut', 'hiruk', 'pikuk', 'sosial', 'politik', 'putar', 'rancang undang undang', 'haluan', 'ideologi', 'pancasila', 'hip', 'baca']</t>
         </is>
       </c>
     </row>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>22829</v>
+        <v>31171</v>
       </c>
       <c r="C32" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,17 +1727,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['video', 'theme', 'song', 'klub', 'bola', 'voli', 'lavani', 'berjudul', 'lavani', 'forever', 'yang', 'diciptakan', 'susilo, bambang, yudhoyono', 'pada', 'januari', 'sebagai', 'pencinta', 'amp']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['video', 'theme', 'song', 'klub', 'bola', 'voli', 'lavani', 'berjudul', 'lavani', 'forever', 'diciptakan', 'sby', 'pd', 'januari', 'sbg', 'pecinta']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['video', 'theme', 'song', 'klub', 'bola', 'voli', 'lavani', 'judul', 'lavani', 'forever', 'cipta', 'sby', 'pd', 'januari', 'sbg', 'cinta']</t>
+          <t>['video', 'theme', 'song', 'klub', 'bola', 'voli', 'lavani', 'berjudul', 'lavani', 'forever', 'diciptakan', 'susilo, bambang, yudhoyono', 'januari', 'pencinta']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['video', 'theme', 'song', 'klub', 'bola', 'voli', 'lavani', 'judul', 'lavani', 'forever', 'cipta', 'susilo bambang yudhoyono', 'januari', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>22830</v>
+        <v>31172</v>
       </c>
       <c r="C33" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1608,17 +1768,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kita', 'kehilangan', 'salah', 'satu', 'prajurit', 'terbaik', 'amp', 'putra', 'terbaik', 'bangsa', 'jend', 'tentara, nasional, indonesia', 'pekerjaan, rumah']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kehilangan', 'salah', 'prajurit', 'terbaik', 'putra', 'terbaik', 'bangsa', 'jend', 'tni', 'pr']</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'hilang', 'salah', 'prajurit', 'baik', 'putra', 'baik', 'bangsa', 'jend', 'tni', 'pr']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kehilangan', 'salah', 'prajurit', 'terbaik', 'putra', 'terbaik', 'bangsa', 'jend', 'tentara, nasional, indonesia', 'pekerjaan, rumah']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'hilang', 'salah', 'prajurit', 'baik', 'putra', 'baik', 'bangsa', 'jend', 'tentara nasional indonesia', 'kerja rumah']</t>
         </is>
       </c>
     </row>
@@ -1627,10 +1792,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>22831</v>
+        <v>31173</v>
       </c>
       <c r="C34" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1644,17 +1809,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['kita', 'kehilangan', 'tokoh', 'yang', 'idealis', 'amp', 'perjuangkan', 'kelestarian', 'bumi', 'dari', 'climate', 'crisis', 'juga', 'keselamatan', 'anakcucu', 'te']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['kehilangan', 'tokoh', 'idealis', 'perjuangkan', 'kelestarian', 'bumi', 'dr', 'climate', 'crisis', 'keselamatan', 'anakcucu', 'te']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['hilang', 'tokoh', 'idealis', 'juang', 'lestari', 'bumi', 'dr', 'climate', 'crisis', 'selamat', 'anakcucu', 'te']</t>
+          <t>['kehilangan', 'tokoh', 'idealis', 'perjuangkan', 'kelestarian', 'bumi', 'climate', 'crisis', 'keselamatan', 'anakcucu', 'te']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['hilang', 'tokoh', 'idealis', 'juang', 'lestari', 'bumi', 'climate', 'crisis', 'selamat', 'anakcucu', 'te']</t>
         </is>
       </c>
     </row>
@@ -1663,10 +1833,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>22832</v>
+        <v>31174</v>
       </c>
       <c r="C35" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1680,17 +1850,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['bapak', 'susilo, bambang, yudhoyono', 'menciptakan', 'lagu', 'cahaya', 'dalam', 'kegelapan', 'untuk', 'rakyat', 'indonesia', 'terutama', 'yang', 'tengah', 'bergulat', 'amp', 'berjuang', 'di']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['sby', 'menciptakan', 'lagu', 'cahaya', 'kegelapan', 'rakyat', 'indonesia', 'bergulat', 'berjuang']</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['sby', 'cipta', 'lagu', 'cahaya', 'gelap', 'rakyat', 'indonesia', 'gulat', 'juang']</t>
+          <t>['susilo, bambang, yudhoyono', 'menciptakan', 'lagu', 'cahaya', 'kegelapan', 'rakyat', 'indonesia', 'bergulat', 'berjuang']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['susilo bambang yudhoyono', 'cipta', 'lagu', 'cahaya', 'gelap', 'rakyat', 'indonesia', 'gulat', 'juang']</t>
         </is>
       </c>
     </row>
@@ -1699,10 +1874,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>22833</v>
+        <v>31175</v>
       </c>
       <c r="C36" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1716,17 +1891,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['kita', 'berterima', 'kasih', 'amp', 'berikan', 'apresiasi', 'kepada', 'para', 'pemimpin', 'bisnis', 'amp', 'philanthropist', 'yang', 'telah', 'berikan', 'donasi', 'untuk', 'perc']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['berterima', 'kasih', 'apresiasi', 'kpd', 'pemimpin', 'bisnis', 'philanthropist', 'donasi', 'perc']</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'apresiasi', 'kpd', 'pimpin', 'bisnis', 'philanthropist', 'donasi', 'perc']</t>
+          <t>['berterima', 'kasih', 'apresiasi', 'pemimpin', 'bisnis', 'philanthropist', 'donasi', 'perc']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'apresiasi', 'pimpin', 'bisnis', 'philanthropist', 'donasi', 'perc']</t>
         </is>
       </c>
     </row>
@@ -1735,10 +1915,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>22834</v>
+        <v>31176</v>
       </c>
       <c r="C37" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1752,17 +1932,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['kita', 'ingin', 'para', 'ilmuwan', 'amp', 'peneliti', 'kesehatan', 'sedunia', 'juga', 'lakukan', 'summit', 'amp', 'kerja, sama', 'untuk', 'sgr', 'temukan', 'amp', 'produksi', 'vak']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['ilmuwan', 'peneliti', 'kesehatan', 'sedunia', 'jg', 'lakukan', 'summit', 'kerjasama', 'sgr', 'temukan', 'produksi', 'vak']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['ilmuwan', 'teliti', 'sehat', 'dunia', 'jg', 'laku', 'summit', 'kerjasama', 'sgr', 'temu', 'produksi', 'vak']</t>
+          <t>['ilmuwan', 'peneliti', 'kesehatan', 'sedunia', 'lakukan', 'summit', 'kerja, sama', 'sgr', 'temukan', 'produksi', 'vak']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['ilmuwan', 'teliti', 'sehat', 'dunia', 'laku', 'summit', 'kerja sama', 'sgr', 'temu', 'produksi', 'vak']</t>
         </is>
       </c>
     </row>
@@ -1771,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>22835</v>
+        <v>31177</v>
       </c>
       <c r="C38" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1788,17 +1973,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['bulan', 'maret', 'sudah', 'ada', 'summit', 'amp', 'komitmen', 'para', 'pemimpin', 'dunia', 'amp', 'untuk', 'melakukan', 'kerja, sama', 'tanggulangi']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['maret', 'summit', 'komitmen', 'pemimpin', 'dunia', 'kerjasama', 'tanggulangi']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['maret', 'summit', 'komitmen', 'pimpin', 'dunia', 'kerjasama', 'tanggulang']</t>
+          <t>['maret', 'summit', 'komitmen', 'pemimpin', 'dunia', 'kerja, sama', 'tanggulangi']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['maret', 'summit', 'komitmen', 'pimpin', 'dunia', 'kerja sama', 'tanggulang']</t>
         </is>
       </c>
     </row>
@@ -1807,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>22836</v>
+        <v>31178</v>
       </c>
       <c r="C39" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1824,15 +2014,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['selamat', 'bertugas', 'pak', 'jokowi', 'amp', 'pemerintah', 'tugas', 'pemerintah', 'berat', 'namun', 'mulia', 'perjuangan', 'masih', 'panjang', 'badai', 'belum']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>['selamat', 'bertugas', 'jokowi', 'pemerintah', 'tugas', 'pemerintah', 'berat', 'mulia', 'perjuangan', 'badai']</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>['selamat', 'tugas', 'jokowi', 'perintah', 'tugas', 'perintah', 'berat', 'mulia', 'juang', 'badai']</t>
         </is>
@@ -1843,10 +2038,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>22837</v>
+        <v>31179</v>
       </c>
       <c r="C40" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1860,15 +2055,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['disiplin', 'kesadaran', 'diri', 'amp', 'kepatuhan', 'masyarakat', 'akan', 'selamatkan', 'kita', 'semua', 'mari', 'kita', 'bantu', 'pemerintah', 'kalau', 'ada']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['disiplin', 'kesadaran', 'kepatuhan', 'masyarakat', 'selamatkan', 'mari', 'bantu', 'pemerintah']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['disiplin', 'sadar', 'patuh', 'masyarakat', 'selamat', 'mari', 'bantu', 'perintah']</t>
         </is>
@@ -1879,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>22838</v>
+        <v>31180</v>
       </c>
       <c r="C41" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1896,17 +2096,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['yang', 'sangat', 'penting', 'marilah', 'kita', 'cegah', 'pertemuan', 'yang', 'menghadirkan', 'banyak', 'orang', 'sosial', 'distancing', 'di', 'manapun', 'kita']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['marilah', 'cegah', 'pertemuan', 'menghadirkan', 'orang', 'social', 'distancing', 'manapun']</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['mari', 'cegah', 'temu', 'hadir', 'orang', 'social', 'distancing', 'mana']</t>
+          <t>['marilah', 'cegah', 'pertemuan', 'menghadirkan', 'orang', 'sosial', 'distancing', 'manapun']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['mari', 'cegah', 'temu', 'hadir', 'orang', 'sosial', 'distancing', 'mana']</t>
         </is>
       </c>
     </row>
@@ -1915,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>22839</v>
+        <v>31181</v>
       </c>
       <c r="C42" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1932,15 +2137,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['kalau', 'masingmasing', 'lakukan', 'lockdown', 'atau', 'mengkarantina', 'diri', 'sendiri', 'tak', 'perlu', 'dilakukan', 'lockdown', 'di', 'kotako']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>['masingmasing', 'lakukan', 'lockdown', 'mengkarantina', 'lockdown', 'kotako']</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>['masingmasing', 'laku', 'lockdown', 'karantina', 'lockdown', 'kotako']</t>
         </is>
@@ -1951,10 +2161,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>22840</v>
+        <v>31182</v>
       </c>
       <c r="C43" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1968,17 +2178,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['mari', 'kita', 'dukung', 'pemerintah', 'dengan', 'melakukan', 'apa', 'yang', 'diharapkan', 'amp', 'diinstruksikan', 'pemerintah', 'sudah', 'satu', 'minggu', 'ini', 'sayang']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['mari', 'dukung', 'pemerintah', 'diharapkan', 'diinstruksikan', 'pemerintah', 'minggu', 'say']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['mari', 'dukung', 'perintah', 'harap', 'instruksi', 'perintah', 'minggu', 'say']</t>
+          <t>['mari', 'dukung', 'pemerintah', 'diharapkan', 'diinstruksikan', 'pemerintah', 'minggu', 'sayang']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['mari', 'dukung', 'perintah', 'harap', 'instruksi', 'perintah', 'minggu', 'sayang']</t>
         </is>
       </c>
     </row>
@@ -1987,10 +2202,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>22841</v>
+        <v>31183</v>
       </c>
       <c r="C44" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2004,17 +2219,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['dalam', 'perangi', 'virus', 'korona', 'saat', 'ini', 'pemerintah', 'tunjukan', 'kesigapan', 'kecepatan', 'amp', 'kerja, sama', 'yang', 'makin', 'baik', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['dlm', 'perangi', 'virus', 'korona', 'pemerintah', 'tunjukkan', 'kesigapan', 'kecepatan', 'kerjasama', 'pemerintah']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['dlm', 'rang', 'virus', 'korona', 'perintah', 'tunjuk', 'sigap', 'cepat', 'kerjasama', 'perintah']</t>
+          <t>['perangi', 'virus', 'korona', 'pemerintah', 'tunjukan', 'kesigapan', 'kecepatan', 'kerja, sama', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['rang', 'virus', 'korona', 'perintah', 'tunjuk', 'sigap', 'cepat', 'kerja sama', 'perintah']</t>
         </is>
       </c>
     </row>
@@ -2023,10 +2243,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>22842</v>
+        <v>31184</v>
       </c>
       <c r="C45" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2040,17 +2260,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['kamis', 'siang', 'susilo, bambang, yudhoyono', 'menerima', 'mari', 'pangestu', 'di', 'cikeas', 'susilo, bambang, yudhoyono', 'mengucapkan', 'selamat', 'atas', 'tugas', 'barunya', 'sebagai', 'man']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['kamis', 'siang', 'sby', 'menerima', 'mari', 'pangestu', 'cikeas', 'sby', 'selamat', 'tugas', 'barunya', 'man']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['kamis', 'siang', 'sby', 'terima', 'mari', 'pangestu', 'cikeas', 'sby', 'selamat', 'tugas', 'baru', 'man']</t>
+          <t>['kamis', 'siang', 'susilo, bambang, yudhoyono', 'menerima', 'mari', 'pangestu', 'cikeas', 'susilo, bambang, yudhoyono', 'selamat', 'tugas', 'barunya', 'man']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['kamis', 'siang', 'susilo bambang yudhoyono', 'terima', 'mari', 'pangestu', 'cikeas', 'susilo bambang yudhoyono', 'selamat', 'tugas', 'baru', 'man']</t>
         </is>
       </c>
     </row>
@@ -2059,10 +2284,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>22843</v>
+        <v>31185</v>
       </c>
       <c r="C46" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2076,17 +2301,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['mengikuti', 'perkemb', 'situasi', 'di', 'kawasan', 'timur', 'tengah', 'pasca', 'tewasnya', 'jend', 'iran', 'qassem', 'soleimani', 'dengan', 'segala', 'perkemb', 'yang', 'menc']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['mengikuti', 'perkemb', 'situasi', 'kawasan', 'timur', 'pasca', 'tewasnya', 'jend', 'iran', 'qassem', 'soleimani', 'sgl', 'perkemb', 'menc']</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['ikut', 'perkemb', 'situasi', 'kawasan', 'timur', 'pasca', 'tewas', 'jend', 'iran', 'qassem', 'soleimani', 'sgl', 'perkemb', 'menc']</t>
+          <t>['mengikuti', 'perkemb', 'situasi', 'kawasan', 'timur', 'pasca', 'tewasnya', 'jend', 'iran', 'qassem', 'soleimani', 'perkemb', 'menc']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['ikut', 'perkemb', 'situasi', 'kawasan', 'timur', 'pasca', 'tewas', 'jend', 'iran', 'qassem', 'soleimani', 'perkemb', 'menc']</t>
         </is>
       </c>
     </row>
@@ -2095,10 +2325,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>22844</v>
+        <v>31186</v>
       </c>
       <c r="C47" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2112,17 +2342,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['semoga', 'natal', 'ini', 'membawa', 'kebahagiaan', 'amp', 'pengharapan', 'kepada', 'umat', 'kristiani', 'mari', 'hormati', 'saudara', 'kita', 'yang', 'merayakan']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['semoga', 'natal', 'membawa', 'kebahagiaan', 'pengharapan', 'kpd', 'umat', 'kristiani', 'mari', 'hormati', 'saudara', 'merayakan']</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['moga', 'natal', 'bawa', 'bahagia', 'harap', 'kpd', 'umat', 'kristiani', 'mari', 'hormat', 'saudara', 'raya']</t>
+          <t>['semoga', 'natal', 'membawa', 'kebahagiaan', 'pengharapan', 'umat', 'kristiani', 'mari', 'hormati', 'saudara', 'merayakan']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['moga', 'natal', 'bawa', 'bahagia', 'harap', 'umat', 'kristiani', 'mari', 'hormat', 'saudara', 'raya']</t>
         </is>
       </c>
     </row>
@@ -2131,10 +2366,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>22845</v>
+        <v>31187</v>
       </c>
       <c r="C48" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2148,15 +2383,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['saya', 'ingat', 'ketika', 'rivan', 'dio', 'doni', 'rendy', 'hernanda', 'dimas', 'dan', 'bastian', 'bermain', 'di', 'lavani', 'love', 'ani', 'sports', 'centre']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>['rivan', 'dio', 'doni', 'rendy', 'hernanda', 'dimas', 'bastian', 'bermain', 'lavani', 'love', 'ani', 'sports', 'centre']</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>['rivan', 'dio', 'doni', 'rendy', 'hernanda', 'mas', 'bastian', 'main', 'lavani', 'love', 'ani', 'sports', 'centre']</t>
         </is>
@@ -2167,10 +2407,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>22846</v>
+        <v>31188</v>
       </c>
       <c r="C49" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2184,15 +2424,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['selaku', 'pembina', 'tim', 'bola', 'volley', 'lavani', 'saya', 'mengucapkan', 'selamat', 'kepada', 'tim', 'indonesia', 'atas', 'kemenangan', 'gemilang', 'di']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>['pembina', 'tim', 'bola', 'volley', 'lavani', 'selamat', 'tim', 'indonesia', 'kemenangan', 'gemilang']</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>['bina', 'tim', 'bola', 'volley', 'lavani', 'selamat', 'tim', 'indonesia', 'menang', 'gemilang']</t>
         </is>
@@ -2203,10 +2448,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>22847</v>
+        <v>31189</v>
       </c>
       <c r="C50" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2220,17 +2465,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['sebagai', 'bentuk', 'kasih', 'sayang', 'dan', 'penghormatan', 'kepada', 'almarhumah', 'ibu', 'ani', 'sejak', 'hari', 'ini', 'pak', 'susilo, bambang, yudhoyono', 'amp', 'keluarga', 'mengakti']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['bentuk', 'kasih', 'sayang', 'penghormatan', 'almarhumah', 'ani', 'sby', 'keluarga', 'mengakti']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['bentuk', 'kasih', 'sayang', 'hormat', 'almarhumah', 'ani', 'sby', 'keluarga', 'mengakti']</t>
+          <t>['bentuk', 'kasih', 'sayang', 'penghormatan', 'almarhumah', 'ani', 'susilo, bambang, yudhoyono', 'keluarga', 'mengakti']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['bentuk', 'kasih', 'sayang', 'hormat', 'almarhumah', 'ani', 'susilo bambang yudhoyono', 'keluarga', 'mengakti']</t>
         </is>
       </c>
     </row>
@@ -2239,10 +2489,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>22848</v>
+        <v>31190</v>
       </c>
       <c r="C51" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2256,15 +2506,20 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['rt', 'beliau', 'mendidik', 'saya', 'untuk', 'senantiasa', 'bekerja', 'keras', 'berbuat', 'yang', 'terbaik', 'pantang', 'menyerah', 'dan', 'teguh', 'pada', 'nilainilai']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>['beliau', 'mendidik', 'senantiasa', 'keras', 'berbuat', 'terbaik', 'pantang', 'menyerah', 'teguh', 'nilainilai']</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>['beliau', 'didik', 'senantiasa', 'keras', 'buat', 'baik', 'pantang', 'serah', 'teguh', 'nilainilai']</t>
         </is>
@@ -2275,10 +2530,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>22849</v>
+        <v>31191</v>
       </c>
       <c r="C52" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2292,17 +2547,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['rt', 'selamat', 'hari', 'ayah', 'nasional', 'untuk', 'para', 'ayah', 'bagi', 'saya', 'pak', 'bukan', 'sekadar', 'seorang', 'ayah', 'tapi', 'juga', 'mentor']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['selamat', 'ayah', 'nasional', 'ayah', 'sekedar', 'ayah', 'mentor']</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['selamat', 'ayah', 'nasional', 'ayah', 'dar', 'ayah', 'mentor']</t>
+          <t>['selamat', 'ayah', 'nasional', 'ayah', 'ayah', 'mentor']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['selamat', 'ayah', 'nasional', 'ayah', 'ayah', 'mentor']</t>
         </is>
       </c>
     </row>
@@ -2311,10 +2571,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>22850</v>
+        <v>31192</v>
       </c>
       <c r="C53" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2328,15 +2588,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['agus', 'terima', 'kasih', 'yang', 'saya', 'nasehatkan', 'kepadamu', 'amp', 'juga', 'adikmu', 'jadilah', 'ksatria', 'yang', 'tangguh', 'itu']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>['agus', 'terima', 'kasih', 'nasehatkan', 'kepadamu', 'adikmu', 'ksatria', 'tangguh']</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>['agus', 'terima', 'kasih', 'nasehat', 'kepada', 'adik', 'ksatria', 'tangguh']</t>
         </is>
@@ -2347,10 +2612,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>22851</v>
+        <v>31193</v>
       </c>
       <c r="C54" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2364,17 +2629,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['sebelum', 'memimpin', 'indonesia', 'oktober', 'kami', 'berdoa', 'bersama', 'kini', 'tinggal', 'kenangan', 'selamat', 'jalan', 'ibunda', 'amp', 'istri']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['memimpin', 'indonesia', 'okt', 'berdoa', 'tinggal', 'kenangan', 'selamat', 'jalan', 'ibunda', 'istri']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['pimpin', 'indonesia', 'okt', 'doa', 'tinggal', 'kenang', 'selamat', 'jalan', 'ibunda', 'istri']</t>
+          <t>['memimpin', 'indonesia', 'oktober', 'berdoa', 'tinggal', 'kenangan', 'selamat', 'jalan', 'ibunda', 'istri']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['pimpin', 'indonesia', 'oktober', 'doa', 'tinggal', 'kenang', 'selamat', 'jalan', 'ibunda', 'istri']</t>
         </is>
       </c>
     </row>
@@ -2383,10 +2653,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>22852</v>
+        <v>31194</v>
       </c>
       <c r="C55" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2400,17 +2670,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['saya', 'ucapkan', 'terima', 'kasih', 'yang', 'tulus', 'kepada', 'para', 'sahabat', 'yang', 'melakukan', 'takziah', 'atas', 'wafatnya', 'ibunda', 'hajah', 'siti', 'habibah']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['ucapkan', 'terima', 'kasih', 'tulus', 'kpd', 'sahabat', 'takziah', 'wafatnya', 'ibunda', 'hajah', 'siti', 'habibah']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['ucap', 'terima', 'kasih', 'tulus', 'kpd', 'sahabat', 'takziah', 'wafat', 'ibunda', 'hajah', 'siti', 'habibah']</t>
+          <t>['ucapkan', 'terima', 'kasih', 'tulus', 'sahabat', 'takziah', 'wafatnya', 'ibunda', 'hajah', 'siti', 'habibah']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['ucap', 'terima', 'kasih', 'tulus', 'sahabat', 'takziah', 'wafat', 'ibunda', 'hajah', 'siti', 'habibah']</t>
         </is>
       </c>
     </row>
@@ -2419,10 +2694,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>22853</v>
+        <v>31195</v>
       </c>
       <c r="C56" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2436,15 +2711,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['saya', 'beserta', 'keluarga', 'mohon', 'doa', 'dari', 'seluruh', 'sahabat', 'agar', 'ibunda', 'kami', 'tercinta', 'siti', 'habibah', 'yang', 'saat', 'ini', 'sedang', 'di']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>['beserta', 'keluarga', 'mohon', 'doa', 'sahabat', 'ibunda', 'tercinta', 'siti', 'habibah']</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>['serta', 'keluarga', 'mohon', 'doa', 'sahabat', 'ibunda', 'cinta', 'siti', 'habibah']</t>
         </is>
@@ -2455,10 +2735,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>22854</v>
+        <v>31196</v>
       </c>
       <c r="C57" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2472,15 +2752,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['ass', 'wr', 'wb', 'sahabatku', 'bung', 'rhoma', 'irama', 'saya', 'sungguh', 'terharu', 'mendengar', 'doa', 'amp', 'ucapan', 'lekas', 'sembuh', 'bung', 'rhoma', 'irama']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>['ass', 'wr', 'wb', 'sahabatku', 'rhoma', 'irama', 'sungguh', 'terharu', 'mendengar', 'doa', 'ucapan', 'lekas', 'sembuh', 'rhoma', 'irama']</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>['ass', 'wr', 'wb', 'sahabat', 'rhoma', 'irama', 'sungguh', 'haru', 'dengar', 'doa', 'ucap', 'lekas', 'sembuh', 'rhoma', 'irama']</t>
         </is>
@@ -2491,10 +2776,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>22855</v>
+        <v>31197</v>
       </c>
       <c r="C58" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2508,17 +2793,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['rt', 'pidato', 'politik', 'agus, harimurti, yudhoyono', 'rekomendasi', 'partai', 'demokrat', 'kepada', 'presiden', 'indonesia', 'mendatang']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['pidato', 'politik', 'ahy', 'rekomendasi', 'partai', 'demokrat', 'presiden', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['pidato', 'politik', 'ahy', 'rekomendasi', 'partai', 'demokrat', 'presiden', 'indonesia']</t>
+          <t>['pidato', 'politik', 'agus, harimurti, yudhoyono', 'rekomendasi', 'partai', 'demokrat', 'presiden', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['pidato', 'politik', 'agus harimurti yudhoyono', 'rekomendasi', 'partai', 'demokrat', 'presiden', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -2527,10 +2817,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>22856</v>
+        <v>31198</v>
       </c>
       <c r="C59" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2544,15 +2834,20 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['rt', 'saya', 'ucapkan', 'terima', 'kasih', 'kepada', 'semua', 'pihak', 'yang', 'sudah', 'memberi', 'atensi', 'dukungan', 'dan', 'doa', 'baiknya', 'selama', 'ini', 'untuk', 'ibu']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>['ucapkan', 'terima', 'kasih', 'atensi', 'dukungan', 'doa', 'baiknya']</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>['ucap', 'terima', 'kasih', 'atensi', 'dukung', 'doa', 'baik']</t>
         </is>
@@ -2563,10 +2858,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>22857</v>
+        <v>31199</v>
       </c>
       <c r="C60" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2580,15 +2875,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['rt', 'sekali', 'lagi', 'mohon', 'doa', 'untuk', 'kami', 'sekeluarga', 'saya', 'juga', 'mendoakan', 'semoga', 'temanteman', 'senantiasa', 'diberkahi', 'kesehatan', 'lahi']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>['mohon', 'doa', 'sekeluarga', 'mendoakan', 'semoga', 'temanteman', 'senantiasa', 'diberkahi', 'kesehatan', 'lahi']</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>['mohon', 'doa', 'keluarga', 'doa', 'moga', 'temanteman', 'senantiasa', 'kah', 'sehat', 'lah']</t>
         </is>
@@ -2599,10 +2899,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22858</v>
+        <v>31200</v>
       </c>
       <c r="C61" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2616,15 +2916,20 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['rt', 'saya', 'dan', 'keluarga', 'besar', 'memohon', 'doa', 'dari', 'temanteman', 'agar', 'ibu', 'ani', 'dapat', 'diberi', 'kesembuhan', 'dari', 'sakit', 'kanker', 'darah', 'dan']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>['keluarga', 'memohon', 'doa', 'temanteman', 'ani', 'kesembuhan', 'sakit', 'kanker', 'darah']</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>['keluarga', 'mohon', 'doa', 'temanteman', 'ani', 'sembuh', 'sakit', 'kanker', 'darah']</t>
         </is>
@@ -2635,10 +2940,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22859</v>
+        <v>31201</v>
       </c>
       <c r="C62" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2652,15 +2957,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['rt', 'temanteman', 'yang', 'baik', 'ibunda', 'kami', 'tercinta', 'ibu', 'ani', 'yudhoyono', 'kristiani', 'herrawati', 'binti', 'sarwo', 'edhie', 'wibowo', 'saat', 'ini']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>['temanteman', 'ibunda', 'tercinta', 'ani', 'yudhoyono', 'kristiani', 'herrawati', 'binti', 'sarwo', 'edhie', 'wibowo']</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>['temanteman', 'ibunda', 'cinta', 'ani', 'yudhoyono', 'kristiani', 'herrawati', 'binti', 'sarwo', 'edhie', 'wibowo']</t>
         </is>
@@ -2671,10 +2981,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>22860</v>
+        <v>31202</v>
       </c>
       <c r="C63" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2688,17 +2998,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['pernyataan', 'resmi', 'susilo, bambang, yudhoyono', 'tentang', 'kondisi', 'kesehatan', 'ibu', 'ani', 'yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['pernyataan', 'resmi', 'sby', 'kondisi', 'kesehatan', 'ani', 'yudhoyono']</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['nyata', 'resmi', 'sby', 'kondisi', 'sehat', 'ani', 'yudhoyono']</t>
+          <t>['pernyataan', 'resmi', 'susilo, bambang, yudhoyono', 'kondisi', 'kesehatan', 'ani', 'yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['nyata', 'resmi', 'susilo bambang yudhoyono', 'kondisi', 'sehat', 'ani', 'yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -2707,10 +3022,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>22861</v>
+        <v>31203</v>
       </c>
       <c r="C64" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2724,15 +3039,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['rt', 'saya', 'berpendapat', 'indonesia', 'harus', 'berada', 'di', 'depan', 'untuk', 'suarakan', 'dunia', 'yang', 'damai', 'bebas', 'dari', 'senjata', 'nuklir', 'sebagai', 'an']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>['berpendapat', 'indonesia', 'suarakan', 'dunia', 'damai', 'bebas', 'senjata', 'nuklir', 'an']</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>['dapat', 'indonesia', 'suara', 'dunia', 'damai', 'bebas', 'senjata', 'nuklir', 'an']</t>
         </is>
@@ -2743,10 +3063,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>22862</v>
+        <v>31204</v>
       </c>
       <c r="C65" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2760,15 +3080,20 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['rt', 'bagaimana', 'pula', 'kalau', 'para', 'pemimpin', 'as', 'rusia', 'amp', 'negara', 'lain', 'yang', 'punya', 'nuklir', 'salah', 'perhitungan', 'miskalkulasi', 'amp', 'grusag']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>['pemimpin', 'as', 'rusia', 'negara', 'nuklir', 'salah', 'perhitungan', 'miskalkulasi', 'grusag']</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>['pimpin', 'as', 'rusia', 'negara', 'nuklir', 'salah', 'hitung', 'miskalkulasi', 'grusag']</t>
         </is>
@@ -2779,10 +3104,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>22863</v>
+        <v>31205</v>
       </c>
       <c r="C66" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2796,15 +3121,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['rt', 'bisa', 'dibayangkan', 'jika', 'dunia', 'kembali', 'berlombalomba', 'kembangkan', 'senjata', 'nuklir', 'sementara', 'kita', 'berharap', 'ada', 'solusi', 'yang', 'baik']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>['dibayangkan', 'dunia', 'berlombalomba', 'kembangkan', 'senjata', 'nuklir', 'berharap', 'solusi']</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>['bayang', 'dunia', 'berlombalomba', 'kembang', 'senjata', 'nuklir', 'harap', 'solusi']</t>
         </is>
@@ -2815,10 +3145,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>22864</v>
+        <v>31206</v>
       </c>
       <c r="C67" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2832,15 +3162,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['rt', 'semoga', 'trump', 'amp', 'putin', 'bisa', 'mencontoh', 'para', 'pedahulunya', 'kennedy', 'amp', 'kruschev', 'yang', 'samasama', 'menahan', 'diri', 'ketika', 'terjadi', 'krisi']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>['semoga', 'trump', 'putin', 'mencontoh', 'pedahulunya', 'kennedy', 'kruschev', 'samasama', 'menahan', 'krisi']</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>['moga', 'trump', 'putin', 'contoh', 'dahulu', 'kennedy', 'kruschev', 'samasama', 'tahan', 'krisi']</t>
         </is>
@@ -2851,10 +3186,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>22865</v>
+        <v>31207</v>
       </c>
       <c r="C68" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2868,15 +3203,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['rt', 'kini', 'dunia', 'perlu', 'bersatu', 'termasuk', 'kepemimpinan', 'pbb', 'untuk', 'meminta', 'amerika', 'serikat', 'trump', 'amp', 'rusia', 'putin', 'tetap', 'pertah']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>['dunia', 'bersatu', 'kepemimpinan', 'pbb', 'amerika', 'serikat', 'trump', 'rusia', 'putin', 'pertah']</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>['dunia', 'satu', 'pimpin', 'pbb', 'amerika', 'serikat', 'trump', 'rusia', 'putin', 'per']</t>
         </is>
@@ -2887,10 +3227,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>22866</v>
+        <v>31208</v>
       </c>
       <c r="C69" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2904,15 +3244,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['rt', 'dulu', 'tahun', 'ketika', 'presiden', 'reagan', 'as', 'amp', 'presiden', 'gorbachev', 'uni', 'soviet', 'menandatangani', 'perjanjian', 'inf', 'dunia', 'mer']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>['presiden', 'reagan', 'as', 'presiden', 'gorbachev', 'uni', 'soviet', 'menandatangani', 'perjanjian', 'inf', 'dunia', 'mer']</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>['presiden', 'reagan', 'as', 'presiden', 'gorbachev', 'uni', 'soviet', 'menandatangani', 'janji', 'inf', 'dunia', 'mer']</t>
         </is>
@@ -2923,10 +3268,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>22867</v>
+        <v>31209</v>
       </c>
       <c r="C70" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2940,15 +3285,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['rt', 'kemarin', 'kita', 'dikejutkan', 'oleh', 'berita', 'pembatalan', 'perjanjian', 'senjata', 'nuklir', 'jarak', 'menengah', 'inf', 'antara', 'amerika', 'serikat', 'amp']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>['kemarin', 'dikejutkan', 'berita', 'pembatalan', 'perjanjian', 'senjata', 'nuklir', 'jarak', 'menengah', 'inf', 'amerika', 'serikat']</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>['kemarin', 'kejut', 'berita', 'batal', 'janji', 'senjata', 'nuklir', 'jarak', 'tengah', 'inf', 'amerika', 'serikat']</t>
         </is>
@@ -2959,10 +3309,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>22868</v>
+        <v>31210</v>
       </c>
       <c r="C71" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2976,15 +3326,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['rt', 'saya', 'yakin', 'setiap', 'bangsa', 'ingin', 'dunianya', 'berada', 'dalam', 'keadaan', 'aman', 'amp', 'damai', 'demikian', 'juga', 'bangsa', 'indonesia', 'itulah', 'sebab']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['bangsa', 'dunianya', 'aman', 'damai', 'bangsa', 'indonesia']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['bangsa', 'dunia', 'aman', 'damai', 'bangsa', 'indonesia']</t>
         </is>
@@ -2995,10 +3350,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>22869</v>
+        <v>31211</v>
       </c>
       <c r="C72" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3012,17 +3367,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['itulah', 'prioritas', 'demokrat', 'yang', 'akan', 'diperjuangkan', 'pada', 'agar', 'ke', 'depan', 'indonesia', 'kita', 'makin', 'damai', 'adil', 'demokratis', 'amp', 'sejahtera', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>['prioritas', 'demokrat', 'diperjuangkan', 'pd', 'indonesia', 'damai', 'adil', 'demokratis', 'sejahtera', 'sby']</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['prioritas', 'demokrat', 'juang', 'pd', 'indonesia', 'damai', 'adil', 'demokratis', 'sejahtera', 'sby']</t>
+          <t>['prioritas', 'demokrat', 'diperjuangkan', 'indonesia', 'damai', 'adil', 'demokratis', 'sejahtera', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['prioritas', 'demokrat', 'juang', 'indonesia', 'damai', 'adil', 'demokratis', 'sejahtera', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3031,10 +3391,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>22870</v>
+        <v>31212</v>
       </c>
       <c r="C73" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3048,17 +3408,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['lanjutan', 'prioritas', 'program, keluarga, harapan', 'raskin', 'bltblsm', 'kur', 'pnpm', 'amp', 'lainlain', 'untuk', 'kurangi', 'kemiskinan', 'amp', 'kesenjangan', 'sosial', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>['lanjutan', 'prioritas', 'pkh', 'raskin', 'bltblsm', 'kur', 'pnpm', 'lainlain', 'kurangi', 'kemiskinan', 'kesenjangan', 'sosial', 'sby']</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['lanjut', 'prioritas', 'pkh', 'raskin', 'bltblsm', 'kur', 'pnpm', 'lainlain', 'kurang', 'miskin', 'senjang', 'sosial', 'sby']</t>
+          <t>['lanjutan', 'prioritas', 'program, keluarga, harapan', 'raskin', 'bltblsm', 'kur', 'pnpm', 'lainlain', 'kurangi', 'kemiskinan', 'kesenjangan', 'sosial', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['lanjut', 'prioritas', 'program keluarga harap', 'raskin', 'bltblsm', 'kur', 'pnpm', 'lainlain', 'kurang', 'miskin', 'senjang', 'sosial', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3067,10 +3432,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>22871</v>
+        <v>31213</v>
       </c>
       <c r="C74" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3084,17 +3449,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['prioritas', 'lanjutkan', 'amp', 'tingkatkan', 'program', 'pro', 'rakyat', 'susilo, bambang, yudhoyono', 'seperti', 'bos', 'bidik', 'misi', 'badan, penyelenggara, jaminan, sosial', 'bantuan', 'lanjut, usia', 'disabilitas', 'amp', 'bencana', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>['prioritas', 'lanjutkan', 'tingkatkan', 'program', 'pro', 'rakyat', 'sby', 'bos', 'bidik', 'misi', 'bpjs', 'bantuan', 'lansia', 'disabilitas', 'bencana', 'sby']</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['prioritas', 'lanjut', 'tingkat', 'program', 'pro', 'rakyat', 'sby', 'bos', 'bidik', 'misi', 'bpjs', 'bantu', 'lansia', 'disabilitas', 'bencana', 'sby']</t>
+          <t>['prioritas', 'lanjutkan', 'tingkatkan', 'program', 'pro', 'rakyat', 'susilo, bambang, yudhoyono', 'bos', 'bidik', 'misi', 'badan, penyelenggara, jaminan, sosial', 'bantuan', 'lanjut, usia', 'disabilitas', 'bencana', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['prioritas', 'lanjut', 'tingkat', 'program', 'pro', 'rakyat', 'susilo bambang yudhoyono', 'bos', 'bidik', 'misi', 'badan selenggara jamin sosial', 'bantu', 'lanjut usia', 'disabilitas', 'bencana', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3103,10 +3473,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>22872</v>
+        <v>31214</v>
       </c>
       <c r="C75" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3120,17 +3490,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['prioritas', 'jaga', 'kebinekaan', 'dan', 'kerukunan', 'antar', 'identitas', 'sara', 'amp', 'cegah', 'perpecahan', 'bangsa', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['prioritas', 'jaga', 'kebhinekaan', 'kerukunan', 'identitas', 'sara', 'cegah', 'perpecahan', 'bangsa', 'sby']</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['prioritas', 'jaga', 'kebhinekaan', 'rukun', 'identitas', 'sara', 'cegah', 'pecah', 'bangsa', 'sby']</t>
+          <t>['prioritas', 'jaga', 'kebinekaan', 'kerukunan', 'identitas', 'sara', 'cegah', 'perpecahan', 'bangsa', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['prioritas', 'jaga', 'bineka', 'rukun', 'identitas', 'sara', 'cegah', 'pecah', 'bangsa', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3139,10 +3514,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>22873</v>
+        <v>31215</v>
       </c>
       <c r="C76" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3156,17 +3531,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['prioritas', 'berikan', 'perlindungan', 'hukum', 'kepada', 'rakyat', 'secara', 'adil', 'amp', 'jamin', 'kebebasan', 'berbicara', 'termasuk', 'kemerdekaan', 'pers', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>['prioritas', 'perlindungan', 'hukum', 'rakyat', 'adil', 'jamin', 'kebebasan', 'berbicara', 'kemerdekaan', 'pers', 'sby']</t>
-        </is>
-      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['prioritas', 'lindung', 'hukum', 'rakyat', 'adil', 'jamin', 'bebas', 'bicara', 'merdeka', 'pers', 'sby']</t>
+          <t>['prioritas', 'perlindungan', 'hukum', 'rakyat', 'adil', 'jamin', 'kebebasan', 'berbicara', 'kemerdekaan', 'pers', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['prioritas', 'lindung', 'hukum', 'rakyat', 'adil', 'jamin', 'bebas', 'bicara', 'merdeka', 'pers', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3175,10 +3555,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22874</v>
+        <v>31216</v>
       </c>
       <c r="C77" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3192,17 +3572,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['prioritas', 'lanjutkan', 'pembangunan', 'infrastruktur', 'termasuk', 'infrastruktur', 'perdesaan', 'sesuai', 'kemampuan', 'keuangan', 'negara', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['prioritas', 'lanjutkan', 'pembangunan', 'infrastruktur', 'infrastruktur', 'perdesaan', 'sesuai', 'kemampuan', 'keuangan', 'negara', 'sby']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['prioritas', 'lanjut', 'bangun', 'infrastruktur', 'infrastruktur', 'desa', 'sesuai', 'mampu', 'uang', 'negara', 'sby']</t>
+          <t>['prioritas', 'lanjutkan', 'pembangunan', 'infrastruktur', 'infrastruktur', 'perdesaan', 'sesuai', 'kemampuan', 'keuangan', 'negara', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['prioritas', 'lanjut', 'bangun', 'infrastruktur', 'infrastruktur', 'desa', 'sesuai', 'mampu', 'uang', 'negara', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3211,10 +3596,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>22875</v>
+        <v>31217</v>
       </c>
       <c r="C78" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3228,17 +3613,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['prioritas', 'kontrol', 'amp', 'batasi', 'utang', 'pemerintah', 'amp', 'badan, usaha, milik, negara', 'agar', 'tak', 'bebani', 'anak', 'cucu', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['prioritas', 'kontrol', 'batasi', 'utang', 'pemerintah', 'bumn', 'bebani', 'anak', 'cucu', 'sby']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['prioritas', 'kontrol', 'batas', 'utang', 'perintah', 'bumn', 'beban', 'anak', 'cucu', 'sby']</t>
+          <t>['prioritas', 'kontrol', 'batasi', 'utang', 'pemerintah', 'badan, usaha, milik, negara', 'bebani', 'anak', 'cucu', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['prioritas', 'kontrol', 'batas', 'utang', 'perintah', 'badan usaha milik negara', 'beban', 'anak', 'cucu', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3247,10 +3637,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>22876</v>
+        <v>31218</v>
       </c>
       <c r="C79" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3264,17 +3654,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['prioritas', 'angkat', 'secara', 'bertahap', 'guru', 'amp', 'pegawai', 'honorer', 'dan', 'tingkatkan', 'kesejahteraan', 'perangkat', 'desa', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['prioritas', 'angkat', 'bertahap', 'guru', 'pegawai', 'honorer', 'tingkatkan', 'kesejahteraan', 'perangkat', 'desa', 'sby']</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['prioritas', 'angkat', 'tahap', 'guru', 'pegawai', 'honorer', 'tingkat', 'sejahtera', 'perangkat', 'desa', 'sby']</t>
+          <t>['prioritas', 'angkat', 'bertahap', 'guru', 'pegawai', 'honorer', 'tingkatkan', 'kesejahteraan', 'perangkat', 'desa', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['prioritas', 'angkat', 'tahap', 'guru', 'pegawai', 'honorer', 'tingkat', 'sejahtera', 'perangkat', 'desa', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3283,10 +3678,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>22877</v>
+        <v>31219</v>
       </c>
       <c r="C80" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3300,17 +3695,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['prioritas', 'bantu', 'amp', 'lindungi', 'usaha, mikro, kecil, dan, menengah', 'termasuk', 'pedagang', 'kecil', 'dan', 'angkutan', 'kota', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>['prioritas', 'bantu', 'lindungi', 'umkm', 'pedagang', 'angkutan', 'kota', 'sby']</t>
-        </is>
-      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['prioritas', 'bantu', 'lindung', 'umkm', 'dagang', 'angkut', 'kota', 'sby']</t>
+          <t>['prioritas', 'bantu', 'lindungi', 'usaha, mikro, kecil, dan, menengah', 'pedagang', 'angkutan', 'kota', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['prioritas', 'bantu', 'lindung', 'usaha mikro kecil dan tengah', 'dagang', 'angkut', 'kota', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3319,10 +3719,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>22878</v>
+        <v>31220</v>
       </c>
       <c r="C81" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3336,17 +3736,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['prioritas', 'longgarkan', 'pajak', 'termasuk', 'dunia', 'usaha', 'agar', 'bisa', 'tumbuh', 'baik', 'amp', 'bisa', 'tingkatkan', 'upah', 'buruh', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['prioritas', 'longgarkan', 'pajak', 'dunia', 'usaha', 'tumbuh', 'tingkatkan', 'upah', 'buruh', 'sby']</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['prioritas', 'longgar', 'pajak', 'dunia', 'usaha', 'tumbuh', 'tingkat', 'upah', 'buruh', 'sby']</t>
+          <t>['prioritas', 'longgarkan', 'pajak', 'dunia', 'usaha', 'tumbuh', 'tingkatkan', 'upah', 'buruh', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['prioritas', 'longgar', 'pajak', 'dunia', 'usaha', 'tumbuh', 'tingkat', 'upah', 'buruh', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3355,10 +3760,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>22879</v>
+        <v>31221</v>
       </c>
       <c r="C82" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3372,17 +3777,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['prioritas', 'tingkatkan', 'gaji', 'pegawai', 'termasuk', 'guru', 'tentara, nasional, indonesia', 'amp', 'kepolisian, republik, indonesia', 'dan', 'pensiunan', 'agar', 'memiliki', 'daya', 'beli', 'yang', 'baik', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['prioritas', 'tingkatkan', 'gaji', 'pegawai', 'guru', 'tni', 'polri', 'pensiunan', 'memiliki', 'daya', 'beli', 'sby']</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['prioritas', 'tingkat', 'gaji', 'pegawai', 'guru', 'tni', 'polri', 'pensiun', 'milik', 'daya', 'beli', 'sby']</t>
+          <t>['prioritas', 'tingkatkan', 'gaji', 'pegawai', 'guru', 'tentara, nasional, indonesia', 'kepolisian, republik, indonesia', 'pensiunan', 'memiliki', 'daya', 'beli', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['prioritas', 'tingkat', 'gaji', 'pegawai', 'guru', 'tentara nasional indonesia', 'polisi republik indonesia', 'pensiun', 'milik', 'daya', 'beli', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3391,10 +3801,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>22880</v>
+        <v>31222</v>
       </c>
       <c r="C83" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3408,17 +3818,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['prioritas', 'stop', 'impor', 'pangan', 'ketika', 'musim', 'panen', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['prioritas', 'stop', 'impor', 'pangan', 'musim', 'panen', 'sby']</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['prioritas', 'stop', 'impor', 'pangan', 'musim', 'panen', 'sby']</t>
+          <t>['prioritas', 'stop', 'impor', 'pangan', 'musim', 'panen', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['prioritas', 'stop', 'impor', 'pangan', 'musim', 'panen', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3427,10 +3842,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>22881</v>
+        <v>31223</v>
       </c>
       <c r="C84" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3444,17 +3859,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['prioritas', 'pertahankan', 'subsidi', 'pupuk', 'untuk', 'petani', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['prioritas', 'pertahankan', 'subsidi', 'pupuk', 'petani', 'sby']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['prioritas', 'tahan', 'subsidi', 'pupuk', 'tani', 'sby']</t>
+          <t>['prioritas', 'pertahankan', 'subsidi', 'pupuk', 'petani', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['prioritas', 'tahan', 'subsidi', 'pupuk', 'tani', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3463,10 +3883,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>22882</v>
+        <v>31224</v>
       </c>
       <c r="C85" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3480,17 +3900,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['prioritas', 'berikan', 'subsidi', 'listrik', 'untuk', 'golongan', 'kurang', 'mampu', 'amp', 'sediakan', 'secara', 'cukup', 'bahan, bakar, minyak', 'premium', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['prioritas', 'subsidi', 'listrik', 'golongan', 'sediakan', 'bbm', 'premium', 'sby']</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['prioritas', 'subsidi', 'listrik', 'golong', 'sedia', 'bbm', 'premium', 'sby']</t>
+          <t>['prioritas', 'subsidi', 'listrik', 'golongan', 'sediakan', 'bahan, bakar, minyak', 'premium', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['prioritas', 'subsidi', 'listrik', 'golong', 'sedia', 'bahan bakar minyak', 'premium', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3499,10 +3924,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>22883</v>
+        <v>31225</v>
       </c>
       <c r="C86" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3516,17 +3941,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['prioritas', 'kelola', 'keuangan', 'amp', 'tingkatkan', 'pelayanan', 'badan, penyelenggara, jaminan, sosial', 'dengan', 'mengutamakan', 'golongan', 'kurang', 'mampu', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['prioritas', 'kelola', 'keuangan', 'tingkatkan', 'pelayanan', 'bpjs', 'mengutamakan', 'golongan', 'sby']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['prioritas', 'kelola', 'uang', 'tingkat', 'layan', 'bpjs', 'utama', 'golong', 'sby']</t>
+          <t>['prioritas', 'kelola', 'keuangan', 'tingkatkan', 'pelayanan', 'badan, penyelenggara, jaminan, sosial', 'mengutamakan', 'golongan', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['prioritas', 'kelola', 'uang', 'tingkat', 'layan', 'badan selenggara jamin sosial', 'utama', 'golong', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3535,10 +3965,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>22884</v>
+        <v>31226</v>
       </c>
       <c r="C87" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3552,17 +3982,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['prioritas', 'ciptakan', 'lebih', 'banyak', 'lapangan', 'kerja', 'termasuk', 'untuk', 'milenial', 'amp', 'perempuan', 'serta', 'batasi', 'tenaga', 'kerja', 'asing', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['prioritas', 'ciptakan', 'lapangan', 'kerja', 'milenial', 'perempuan', 'batasi', 'tenaga', 'kerja', 'asing', 'sby']</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['prioritas', 'cipta', 'lapang', 'kerja', 'milenial', 'perempuan', 'batas', 'tenaga', 'kerja', 'asing', 'sby']</t>
+          <t>['prioritas', 'ciptakan', 'lapangan', 'kerja', 'milenial', 'perempuan', 'batasi', 'tenaga', 'kerja', 'asing', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['prioritas', 'cipta', 'lapang', 'kerja', 'milenial', 'perempuan', 'batas', 'tenaga', 'kerja', 'asing', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3571,10 +4006,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>22885</v>
+        <v>31227</v>
       </c>
       <c r="C88" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3588,17 +4023,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['berdasarkan', 'persoalan', 'yang', 'dihadapi', 'rakyat', 'beserta', 'aspirasi', 'yang', 'disampaikan', 'pada', 'telah', 'merumuskan', 'prioritas', 'demokrat', 'untuk', 'rakyat', 'sebab', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['berdasarkan', 'dihadapi', 'rakyat', 'beserta', 'aspirasi', 'pd', 'merumuskan', 'prioritas', 'demokrat', 'rakyat', 'sbb', 'sby']</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['dasar', 'hadap', 'rakyat', 'serta', 'aspirasi', 'pd', 'rumus', 'prioritas', 'demokrat', 'rakyat', 'sbb', 'sby']</t>
+          <t>['berdasarkan', 'dihadapi', 'rakyat', 'beserta', 'aspirasi', 'merumuskan', 'prioritas', 'demokrat', 'rakyat', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['dasar', 'hadap', 'rakyat', 'serta', 'aspirasi', 'rumus', 'prioritas', 'demokrat', 'rakyat', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3607,10 +4047,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>22886</v>
+        <v>31228</v>
       </c>
       <c r="C89" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3624,17 +4064,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['dalam', 'pertemuan', 'amp', 'dialog', 'saya', 'dengan', 'rakyat', 'di', 'ratusan', 'kabupaten', 'amp', 'kota', 'tahun', 'terakhir', 'pada', 'memahami', 'apa', 'yang', 'jadi', 'harapan', 'amp', 'aspirasi', 'mereka', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 22 samples and 24 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['dlm', 'pertemuan', 'dialog', 'rakyat', 'ratusan', 'kab', 'kota', 'th', 'pd', 'memahami', 'harapan', 'aspirasi', 'sby']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['dlm', 'temu', 'dialog', 'rakyat', 'ratus', 'kab', 'kota', 'th', 'pd', 'paham', 'harap', 'aspirasi', 'sby']</t>
+          <t>['pertemuan', 'dialog', 'rakyat', 'ratusan', 'kabupaten', 'kota', 'memahami', 'harapan', 'aspirasi', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['temu', 'dialog', 'rakyat', 'ratus', 'kabupaten', 'kota', 'paham', 'harap', 'aspirasi', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3643,10 +4088,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>22887</v>
+        <v>31229</v>
       </c>
       <c r="C90" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3660,17 +4105,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['dalam', 'kapasitas', 'saya', 'sebagai', 'pemimpin', 'partai', 'demokrat', 'pada', 'saya', 'meminta', 'restu', 'rakyat', 'indonesia', 'untuk', 'ikut', 'berjuang', 'dalam']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['dlm', 'kapasitas', 'pemimpin', 'partai', 'demokrat', 'pd', 'restu', 'rakyat', 'indonesia', 'berjuang', 'dlm']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['dlm', 'kapasitas', 'pimpin', 'partai', 'demokrat', 'pd', 'restu', 'rakyat', 'indonesia', 'juang', 'dlm']</t>
+          <t>['kapasitas', 'pemimpin', 'partai', 'demokrat', 'restu', 'rakyat', 'indonesia', 'berjuang']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['kapasitas', 'pimpin', 'partai', 'demokrat', 'restu', 'rakyat', 'indonesia', 'juang']</t>
         </is>
       </c>
     </row>
@@ -3679,10 +4129,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>22888</v>
+        <v>31230</v>
       </c>
       <c r="C91" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3696,17 +4146,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['harapan', 'kita', 'pak', 'jokowi', 'pak', 'prabowo', 'amp', 'para', 'elite', 'politik', 'termasuk', 'saya', 'bisa', 'memberi', 'contoh', 'atas', 'damai', 'jujur, adil', 'amp']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>['harapan', 'jokowi', 'prabowo', 'elit', 'politik', 'contoh', 'damai', 'jurdil']</t>
-        </is>
-      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['harap', 'jokowi', 'prabowo', 'elit', 'politik', 'contoh', 'damai', 'jurdil']</t>
+          <t>['harapan', 'jokowi', 'prabowo', 'elite', 'politik', 'contoh', 'damai', 'jujur, adil']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['harap', 'jokowi', 'prabowo', 'elite', 'politik', 'contoh', 'damai', 'jujur adil']</t>
         </is>
       </c>
     </row>
@@ -3715,10 +4170,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>22889</v>
+        <v>31231</v>
       </c>
       <c r="C92" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3732,17 +4187,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['kompetisi', 'memang', 'keras', 'terlebih', 'pemilihan', 'presiden', 'namun', 'semua', 'ada', 'batasnya', 'janganlah', 'melampaui', 'batas', 'tak', 'baik', 'untuk', 'rakyat', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['kompetisi', 'keras', 'pemilihan', 'presiden', 'batasnya', 'melampaui', 'batas', 'rakyat', 'sby']</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['kompetisi', 'keras', 'pilih', 'presiden', 'batas', 'lampau', 'batas', 'rakyat', 'sby']</t>
+          <t>['kompetisi', 'keras', 'pemilihan', 'presiden', 'batasnya', 'melampaui', 'batas', 'rakyat', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['kompetisi', 'keras', 'pilih', 'presiden', 'batas', 'lampau', 'batas', 'rakyat', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3751,10 +4211,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>22890</v>
+        <v>31232</v>
       </c>
       <c r="C93" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3768,17 +4228,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['tahun', 'ini', 'juga', 'tahun', 'pemilihan, umum', 'marilah', 'kita', 'berkontribusi', 'agar', 'pemilihan, umum', 'ini', 'berlangsung', 'damai', 'jujur', 'amp', 'adil']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['pemilu', 'marilah', 'berkontribusi', 'pemilu', 'damai', 'jujur', 'adil']</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['milu', 'mari', 'kontribusi', 'milu', 'damai', 'jujur', 'adil']</t>
+          <t>['pemilihan, umum', 'marilah', 'berkontribusi', 'pemilihan, umum', 'damai', 'jujur', 'adil']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['pilih umum', 'mari', 'kontribusi', 'pilih umum', 'damai', 'jujur', 'adil']</t>
         </is>
       </c>
     </row>
@@ -3787,10 +4252,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>22891</v>
+        <v>31233</v>
       </c>
       <c r="C94" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3804,17 +4269,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['hari', 'ini', 'januari', 'kita', 'memasuki', 'tahun', 'baru', 'dengan', 'tekad', 'amp', 'harapan', 'agar', 'nasib', 'kita', 'amp', 'masa', 'depan', 'indonesia', 'makin', 'baik', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['januari', 'memasuki', 'tekad', 'harapan', 'nasib', 'indonesia', 'sby']</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['januari', 'pasuk', 'tekad', 'harap', 'nasib', 'indonesia', 'sby']</t>
+          <t>['januari', 'memasuki', 'tekad', 'harapan', 'nasib', 'indonesia', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['januari', 'pasuk', 'tekad', 'harap', 'nasib', 'indonesia', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3823,10 +4293,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>22892</v>
+        <v>31234</v>
       </c>
       <c r="C95" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3840,17 +4310,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['pak', 'said', 'didu', 'juga', 'telah', 'berikan', 'pelajaran', 'berharga', 'tidak', 'selalu', 'membenarkan', 'yang', 'kuat', 'tetapi', 'berani', 'perkuat', 'kebenaran', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>['said', 'didu', 'pelajaran', 'berharga', 'membenarkan', 'kuat', 'berani', 'perkuat', 'kebenaran', 'sby']</t>
-        </is>
-      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['said', 'didu', 'ajar', 'harga', 'benar', 'kuat', 'berani', 'kuat', 'benar', 'sby']</t>
+          <t>['said', 'didu', 'pelajaran', 'berharga', 'membenarkan', 'kuat', 'berani', 'perkuat', 'kebenaran', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['said', 'didu', 'ajar', 'harga', 'benar', 'kuat', 'berani', 'kuat', 'benar', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -3859,10 +4334,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>22893</v>
+        <v>31235</v>
       </c>
       <c r="C96" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3876,15 +4351,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['saya', 'menaruh', 'rasa', 'hormat', 'bapak', 'said', 'didu', 'telah', 'ambil', 'risiko', 'dengan', 'telling', 'the', 'truth', 'saya', 'tahu', 'iktikad', 'bapak', 'baik']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>['menaruh', 'hormat', 'said', 'didu', 'ambil', 'risiko', 'telling', 'the', 'truth', 'iktikad']</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>['taruh', 'hormat', 'said', 'didu', 'ambil', 'risiko', 'telling', 'the', 'truth', 'iktikad']</t>
         </is>
@@ -3895,10 +4375,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>22894</v>
+        <v>31236</v>
       </c>
       <c r="C97" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3912,17 +4392,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['karenanya', 'bapak', 'said', 'didu', 'tak', 'mau', 'amp', 'tak', 'gegabah', 'menyalahkan', 'kebijakan', 'pemerintah', 'manapun', 'termasuk', 'pemerintahan', 'pak']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['said', 'didu', 'gegabah', 'menyalahkan', 'kebijakan', 'pemerintah', 'manapun', 'pemerintahan', 'pa']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['said', 'didu', 'gegabah', 'salah', 'bijak', 'perintah', 'mana', 'perintah', 'pa']</t>
+          <t>['said', 'didu', 'gegabah', 'menyalahkan', 'kebijakan', 'pemerintah', 'manapun', 'pemerintahan']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['said', 'didu', 'gegabah', 'salah', 'bijak', 'perintah', 'mana', 'perintah']</t>
         </is>
       </c>
     </row>
@@ -3931,10 +4416,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>22895</v>
+        <v>31237</v>
       </c>
       <c r="C98" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3948,15 +4433,20 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['pak', 'said', 'didu', 'secara', 'implisit', 'juga', 'mengatakan', 'setiap', 'pemerintah', 'ingin', 'tetapkan', 'pilihan', 'yang', 'tepat', 'amp', 'berbuat', 'yang', 'terbai']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>['said', 'didu', 'implisit', 'pemerintah', 'tetapkan', 'pilihan', 'berbuat', 'terbai']</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>['said', 'didu', 'implisit', 'perintah', 'tetap', 'pilih', 'buat', 'terbai']</t>
         </is>
@@ -3967,10 +4457,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>22896</v>
+        <v>31238</v>
       </c>
       <c r="C99" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3984,17 +4474,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['pak', 'said', 'didu', 'memahami', 'kompleksitas', 'permasalahan', 'amp', 'dilema', 'yang', 'dihadapi', 'setiap', 'pemerintahan', 'dalam', 'menetapkan', 'pilihan', 'amp', 'kebijakan', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['said', 'didu', 'memahami', 'kompleksitas', 'permasalahan', 'dilema', 'dihadapi', 'pemerintahan', 'dlm', 'menetapkan', 'pilihan', 'kebijakan', 'sby']</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['said', 'didu', 'paham', 'kompleksitas', 'masalah', 'dilema', 'hadap', 'perintah', 'dlm', 'tetap', 'pilih', 'bijak', 'sby']</t>
+          <t>['said', 'didu', 'memahami', 'kompleksitas', 'permasalahan', 'dilema', 'dihadapi', 'pemerintahan', 'menetapkan', 'pilihan', 'kebijakan', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['said', 'didu', 'paham', 'kompleksitas', 'masalah', 'dilema', 'hadap', 'perintah', 'tetap', 'pilih', 'bijak', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -4003,10 +4498,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>22897</v>
+        <v>31239</v>
       </c>
       <c r="C100" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4020,17 +4515,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['saya', 'baru', 'membaca', 'kuliah, lewat, twitter', 'pak', 'said', 'didu', 'tentang', 'isu', 'divestasi', 'saham', 'freeport', 'penjelasan', 'yang', 'sangat', 'informatif', 'utuh', 'me']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['membaca', 'kultwit', 'said', 'didu', 'ttg', 'isu', 'divestasi', 'saham', 'freeport', 'penjelasan', 'informatif', 'utuh', 'me']</t>
-        </is>
-      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['baca', 'kultwit', 'said', 'didu', 'ttg', 'isu', 'divestasi', 'saham', 'freeport', 'jelas', 'informatif', 'utuh', 'me']</t>
+          <t>['membaca', 'kuliah, lewat, twitter', 'said', 'didu', 'isu', 'divestasi', 'saham', 'freeport', 'penjelasan', 'informatif', 'utuh', 'me']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['baca', 'kuliah lewat twitter', 'said', 'didu', 'isu', 'divestasi', 'saham', 'freeport', 'jelas', 'informatif', 'utuh', 'me']</t>
         </is>
       </c>
     </row>
@@ -4039,10 +4539,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>22898</v>
+        <v>31240</v>
       </c>
       <c r="C101" t="n">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4056,17 +4556,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['setelah', 'itu', 'kami', 'akan', 'sampaikan', 'pernyataan', 'pers', 'seperti', 'yang', 'disampaikan', 'menteri, perekonomian', 'politik, hukum, dan, keamanan', 'hari', 'ini', 'agar', 'diketahui', 'rakyat', 'indonesia', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['pernyataan', 'pers', 'menko', 'polhukam', 'rakyat', 'indonesia', 'sby']</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['nyata', 'pers', 'menko', 'polhukam', 'rakyat', 'indonesia', 'sby']</t>
+          <t>['pernyataan', 'pers', 'menteri, perekonomian', 'politik, hukum, dan, keamanan', 'rakyat', 'indonesia', 'susilo, bambang, yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['nyata', 'pers', 'menteri ekonomi', 'politik hukum dan aman', 'rakyat', 'indonesia', 'susilo bambang yudhoyono']</t>
         </is>
       </c>
     </row>
